--- a/Base de données TIPE/Homme/Badminton/Simple/TIPE_Homme_Badminton_Simple.xlsx
+++ b/Base de données TIPE/Homme/Badminton/Simple/TIPE_Homme_Badminton_Simple.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lg/Documents/Prépa /TIPE /Base de données TIPE/Homme/Badminton/Simple/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f4da551048f813a/Prépa/Spé/TIPE/TIPE_2324/Base de données TIPE/Homme/Badminton/Simple/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A032DE57-1EF3-294E-A0E5-9DE4341BD069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B4DCF08-66F7-9C42-97AB-F4195CB6D93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7680" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{FBDEE8D5-A1A5-4549-B5F9-9AAAC33E0693}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="TIPE_Homme_Badminton_Simple" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
   <si>
     <t>Colonnes :</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>Homme_Badminton_Simple</t>
+  </si>
+  <si>
+    <t>Finale</t>
+  </si>
+  <si>
+    <t>Demi finale</t>
+  </si>
+  <si>
+    <t>Quart de finale</t>
   </si>
 </sst>
 </file>
@@ -138,6 +147,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,7 +453,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,7 +527,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
         <v>45500</v>
@@ -531,7 +544,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2">
         <v>45500</v>
@@ -548,7 +561,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2">
         <v>45501</v>
@@ -565,7 +578,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2">
         <v>45501</v>
@@ -582,7 +595,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
         <v>45501</v>
@@ -599,7 +612,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>45502</v>
@@ -616,7 +629,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>45502</v>
@@ -633,7 +646,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>45502</v>
@@ -650,7 +663,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2">
         <v>45503</v>

--- a/Base de données TIPE/Homme/Badminton/Simple/TIPE_Homme_Badminton_Simple.xlsx
+++ b/Base de données TIPE/Homme/Badminton/Simple/TIPE_Homme_Badminton_Simple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f4da551048f813a/Prépa/Spé/TIPE/TIPE_2324/Base de données TIPE/Homme/Badminton/Simple/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B4DCF08-66F7-9C42-97AB-F4195CB6D93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{8B4DCF08-66F7-9C42-97AB-F4195CB6D93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74B0E0F6-0220-3E42-82A7-72F1A3C55AB7}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{FBDEE8D5-A1A5-4549-B5F9-9AAAC33E0693}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{FBDEE8D5-A1A5-4549-B5F9-9AAAC33E0693}"/>
   </bookViews>
   <sheets>
     <sheet name="TIPE_Homme_Badminton_Simple" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="20">
   <si>
     <t>Colonnes :</t>
   </si>
@@ -90,15 +90,15 @@
   </si>
   <si>
     <t>Quart de finale</t>
+  </si>
+  <si>
+    <t>badminton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -131,7 +131,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -147,10 +147,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C0D8FF-4CA4-FC43-A59A-C42D1DA89466}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,56 +457,57 @@
     <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2">
         <v>45500</v>
@@ -524,10 +521,13 @@
       <c r="E12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
         <v>45500</v>
@@ -541,10 +541,13 @@
       <c r="E13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
         <v>45500</v>
@@ -558,10 +561,13 @@
       <c r="E14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
         <v>45501</v>
@@ -575,10 +581,13 @@
       <c r="E15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2">
         <v>45501</v>
@@ -592,10 +601,13 @@
       <c r="E16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>45501</v>
@@ -609,10 +621,13 @@
       <c r="E17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
         <v>45502</v>
@@ -626,10 +641,13 @@
       <c r="E18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
         <v>45502</v>
@@ -643,10 +661,13 @@
       <c r="E19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>45502</v>
@@ -660,10 +681,13 @@
       <c r="E20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>45503</v>
@@ -677,10 +701,13 @@
       <c r="E21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2">
         <v>45503</v>
@@ -694,10 +721,13 @@
       <c r="E22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2">
         <v>45503</v>
@@ -711,10 +741,13 @@
       <c r="E23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2">
         <v>45504</v>
@@ -728,10 +761,13 @@
       <c r="E24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2">
         <v>45504</v>
@@ -745,10 +781,13 @@
       <c r="E25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2">
         <v>45504</v>
@@ -762,10 +801,13 @@
       <c r="E26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2">
         <v>45505</v>
@@ -779,10 +821,13 @@
       <c r="E27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B28" s="2">
         <v>45505</v>
@@ -796,10 +841,13 @@
       <c r="E28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B29" s="2">
         <v>45506</v>
@@ -813,10 +861,13 @@
       <c r="E29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B30" s="2">
         <v>45508</v>
@@ -830,10 +881,13 @@
       <c r="E30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B31" s="2">
         <v>45509</v>
@@ -847,10 +901,13 @@
       <c r="E31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B32" s="2">
         <v>45509</v>
@@ -863,6 +920,9 @@
       </c>
       <c r="E32" t="s">
         <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
